--- a/inputs.xlsx
+++ b/inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradenlimb/CloudStation/Quinn Group/Reid API/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradenlimb/CloudStation/GitHub/Europa-TMY-API/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB282F4-8721-C149-96FF-5954D0447E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04440A03-A024-C646-8182-F3A7F0E2E0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{B47722BF-A025-AA46-B10C-6BC94629BAC1}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{B47722BF-A025-AA46-B10C-6BC94629BAC1}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs_test" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>lat</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>epw</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -410,60 +416,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A2335C-1B47-A542-9C8F-40DA728DDEB2}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
         <v>40.585258000000003</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>-105.084419</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2005</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2015</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0</v>
       </c>
     </row>
